--- a/directory/files/variables/variable.xlsx
+++ b/directory/files/variables/variable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="234">
   <si>
     <t xml:space="preserve">identificación</t>
   </si>
@@ -692,6 +692,36 @@
   </si>
   <si>
     <t xml:space="preserve"> El peso del grano generalmente se expresa como peso de uno, cien, doscientos o mil granos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FUSARIUM SPP (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusarium spp. es uno de los hongos filamentosos patógenos más ubicuos en el mundo1. Las especies de Fusarium en el ser humano causan infecciones localizadas, localmente invasivas y diseminadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER_UNIDENTIFIED_FOLIAR_BLIGHTS  (double_digit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras plagas florales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coeficiente de infección (CI) calculado multiplicando la gravedad por una constante para la respuesta del huésped: donde inmune = 0,0, R = 0,2, MR = 0,4, MS = 0,8 y S = 1,0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STRIPE_RUST_ON_LEAF  (Coefficient_of_Infection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECTED_CHECK_MARK  (mark)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean para indicar si fue check el experimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow color index (b-value)  (real)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel del canal azul para definir en grados de color amarillo R=100 G= 100 B = ?</t>
   </si>
 </sst>
 </file>
@@ -706,7 +736,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -766,13 +795,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -792,10 +825,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2267,6 +2300,49 @@
         <v>223</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
